--- a/Project Management/PM_Plan_BackLog.xlsx
+++ b/Project Management/PM_Plan_BackLog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19140" windowHeight="7340"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19140" windowHeight="7340" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Time Plan" sheetId="1" r:id="rId1"/>
@@ -244,27 +244,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -286,6 +271,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -590,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -600,7 +600,7 @@
     <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="77.81640625" style="1" customWidth="1"/>
     <col min="4" max="7" width="15.26953125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.26953125" style="21" customWidth="1"/>
+    <col min="8" max="8" width="17.26953125" style="16" customWidth="1"/>
     <col min="9" max="9" width="17.54296875" customWidth="1"/>
     <col min="10" max="10" width="15.7265625" customWidth="1"/>
     <col min="11" max="11" width="16.7265625" customWidth="1"/>
@@ -628,7 +628,7 @@
       <c r="G1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="12" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="2" t="s">
@@ -647,286 +647,286 @@
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
     </row>
-    <row r="2" spans="1:19" s="14" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:19" s="9" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="14">
+      <c r="H2" s="9">
         <v>2</v>
       </c>
-      <c r="I2" s="14">
+      <c r="I2" s="9">
         <v>2</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="14" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="12"/>
-      <c r="B3" s="14" t="s">
+    <row r="3" spans="1:19" s="9" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="20"/>
+      <c r="B3" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="9">
         <v>2</v>
       </c>
-      <c r="I3" s="14">
+      <c r="I3" s="9">
         <v>2</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="14" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="12"/>
-      <c r="B4" s="14" t="s">
+    <row r="4" spans="1:19" s="9" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="20"/>
+      <c r="B4" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="F4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="9">
+        <v>2</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" s="10" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="21"/>
+      <c r="B5" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="10">
+        <v>3</v>
+      </c>
+      <c r="I5" s="10">
+        <v>3</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="E6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="14">
-        <v>2</v>
-      </c>
-      <c r="J4" s="14" t="s">
+      <c r="H6" s="13">
+        <v>7</v>
+      </c>
+      <c r="J6" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:19" s="15" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="13"/>
-      <c r="B5" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="15" t="s">
+    <row r="7" spans="1:19" s="6" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="18"/>
+      <c r="B7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="14">
+        <v>3</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" s="6" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="18"/>
+      <c r="B8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="F8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="14">
+        <v>7</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" s="6" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="18"/>
+      <c r="B9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="14">
+        <v>3</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="18"/>
+      <c r="B10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="15">
-        <v>3</v>
-      </c>
-      <c r="I5" s="15">
-        <v>3</v>
-      </c>
-      <c r="J5" s="15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="6" t="s">
+      <c r="G10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="14">
+        <v>8</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="19"/>
+      <c r="B11" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="18">
-        <v>7</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="19">
-        <v>3</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="19">
-        <v>7</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="19">
-        <v>3</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="8" t="s">
+      <c r="G11" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="19">
-        <v>8</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" s="11" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" s="20">
+      <c r="H11" s="15">
         <v>9</v>
       </c>
-      <c r="J11" s="11" t="s">
+      <c r="J11" s="8" t="s">
         <v>17</v>
       </c>
     </row>
@@ -947,8 +947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -957,11 +957,11 @@
     <col min="3" max="3" width="15.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="16" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:2" s="11" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="11" t="s">
         <v>42</v>
       </c>
     </row>

--- a/Project Management/PM_Plan_BackLog.xlsx
+++ b/Project Management/PM_Plan_BackLog.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="50">
   <si>
     <t>Task Name</t>
   </si>
@@ -150,6 +150,22 @@
   </si>
   <si>
     <t>making time plan for new phase</t>
+  </si>
+  <si>
+    <t>DES_Understanding</t>
+  </si>
+  <si>
+    <t>face to face meeting to understand the designs and what will ever one do</t>
+  </si>
+  <si>
+    <t>3 hours for every member</t>
+  </si>
+  <si>
+    <t>Whole team, couches and 
+the quality manager</t>
+  </si>
+  <si>
+    <t>Effort Planned</t>
   </si>
 </sst>
 </file>
@@ -180,18 +196,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -236,15 +246,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -256,11 +265,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -272,6 +278,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -279,12 +298,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -588,10 +601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S17"/>
+  <dimension ref="A1:S18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -600,8 +613,8 @@
     <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="77.81640625" style="1" customWidth="1"/>
     <col min="4" max="7" width="15.26953125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.26953125" style="16" customWidth="1"/>
-    <col min="9" max="9" width="17.54296875" customWidth="1"/>
+    <col min="8" max="8" width="25" style="14" customWidth="1"/>
+    <col min="9" max="9" width="24.90625" customWidth="1"/>
     <col min="10" max="10" width="15.7265625" customWidth="1"/>
     <col min="11" max="11" width="16.7265625" customWidth="1"/>
   </cols>
@@ -628,7 +641,7 @@
       <c r="G1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="11" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="2" t="s">
@@ -647,296 +660,346 @@
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
     </row>
-    <row r="2" spans="1:19" s="9" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
+    <row r="2" spans="1:19" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="9" t="s">
+      <c r="F2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="8">
+        <v>1</v>
+      </c>
+      <c r="I2" s="8">
+        <v>1</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="16"/>
+      <c r="B3" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="8">
+        <v>1</v>
+      </c>
+      <c r="I3" s="8">
+        <v>1</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="16"/>
+      <c r="B4" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="8">
+        <v>1</v>
+      </c>
+      <c r="I4" s="8">
+        <v>1</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" s="9" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="17"/>
+      <c r="B5" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="9">
         <v>2</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I5" s="9">
         <v>2</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J5" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="19"/>
+      <c r="F6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="21"/>
+      <c r="B7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="12">
+        <v>4</v>
+      </c>
+      <c r="I7" s="12">
+        <v>4</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" s="5" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="21"/>
+      <c r="B8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="12">
+        <v>2</v>
+      </c>
+      <c r="I8" s="12">
+        <v>2</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" s="5" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="21"/>
+      <c r="B9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="12">
+        <v>4</v>
+      </c>
+      <c r="I9" s="12">
+        <v>3</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" s="5" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="21"/>
+      <c r="B10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="12">
+        <v>3</v>
+      </c>
+      <c r="I10" s="12">
+        <v>3</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" s="5" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="21"/>
+      <c r="B11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="12">
+        <v>4</v>
+      </c>
+      <c r="I11" s="12">
+        <v>4</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" s="7" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="22"/>
+      <c r="B12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="13">
+        <v>5</v>
+      </c>
+      <c r="I12" s="13">
+        <v>5</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="9" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="20"/>
-      <c r="B3" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="9">
-        <v>2</v>
-      </c>
-      <c r="I3" s="9">
-        <v>2</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" s="9" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="20"/>
-      <c r="B4" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="9">
-        <v>2</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" s="10" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="21"/>
-      <c r="B5" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="10">
-        <v>3</v>
-      </c>
-      <c r="I5" s="10">
-        <v>3</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="13">
-        <v>7</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" s="6" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="18"/>
-      <c r="B7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="14">
-        <v>3</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" s="6" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="18"/>
-      <c r="B8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="14">
-        <v>7</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" s="6" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="18"/>
-      <c r="B9" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="14">
-        <v>3</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="18"/>
-      <c r="B10" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" s="14">
-        <v>8</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="19"/>
-      <c r="B11" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" s="15">
-        <v>9</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B17" s="4"/>
+    <row r="18" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B18" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A6:A11"/>
+  <mergeCells count="3">
     <mergeCell ref="A2:A5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="A6:A12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -945,10 +1008,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -957,60 +1020,81 @@
     <col min="3" max="3" width="15.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="11" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:3" s="10" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C1" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
       <c r="B2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>30</v>
       </c>
       <c r="B3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>13</v>
       </c>
       <c r="B4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>25</v>
       </c>
       <c r="B5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>19</v>
       </c>
       <c r="B6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>29</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Project Management/PM_Plan_BackLog.xlsx
+++ b/Project Management/PM_Plan_BackLog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19140" windowHeight="7340" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19140" windowHeight="7340"/>
   </bookViews>
   <sheets>
     <sheet name="Time Plan" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="49">
   <si>
     <t>Task Name</t>
   </si>
@@ -66,9 +66,6 @@
   </si>
   <si>
     <t>23/4</t>
-  </si>
-  <si>
-    <t>opened</t>
   </si>
   <si>
     <t>high level design using decomposition diagram</t>
@@ -603,8 +600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S18"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -662,19 +659,19 @@
     </row>
     <row r="2" spans="1:19" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>36</v>
-      </c>
       <c r="C2" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>15</v>
@@ -689,22 +686,22 @@
         <v>1</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:19" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="16"/>
       <c r="B3" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>15</v>
@@ -719,16 +716,16 @@
         <v>1</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:19" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="16"/>
       <c r="B4" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>38</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>39</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>14</v>
@@ -749,16 +746,16 @@
         <v>1</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:19" s="9" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="17"/>
       <c r="B5" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>43</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>44</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>14</v>
@@ -779,7 +776,7 @@
         <v>2</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:19" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.35">
@@ -787,13 +784,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>46</v>
-      </c>
       <c r="D6" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E6" s="19"/>
       <c r="F6" s="8" t="s">
@@ -803,13 +800,13 @@
         <v>15</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:19" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -839,19 +836,19 @@
         <v>4</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:19" s="5" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="21"/>
       <c r="B8" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>19</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>13</v>
@@ -860,7 +857,7 @@
         <v>15</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H8" s="12">
         <v>2</v>
@@ -869,22 +866,22 @@
         <v>2</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:19" s="5" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="21"/>
       <c r="B9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="D9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="E9" s="5" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>15</v>
@@ -899,19 +896,19 @@
         <v>3</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:19" s="5" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="21"/>
       <c r="B10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>27</v>
-      </c>
       <c r="D10" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>14</v>
@@ -929,28 +926,28 @@
         <v>3</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:19" s="5" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="21"/>
       <c r="B11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="5" t="s">
+      <c r="E11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="F11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="H11" s="12">
         <v>4</v>
@@ -959,28 +956,28 @@
         <v>4</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:19" s="7" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="22"/>
       <c r="B12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>33</v>
-      </c>
       <c r="D12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="H12" s="13">
         <v>5</v>
@@ -989,7 +986,7 @@
         <v>5</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1010,7 +1007,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -1022,13 +1019,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>42</v>
-      </c>
       <c r="C1" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -1044,7 +1041,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3">
         <v>10</v>
@@ -1066,7 +1063,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5">
         <v>10</v>
@@ -1077,7 +1074,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6">
         <v>10</v>
@@ -1088,7 +1085,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B7">
         <v>10</v>

--- a/Project Management/PM_Plan_BackLog.xlsx
+++ b/Project Management/PM_Plan_BackLog.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="90" windowWidth="19140" windowHeight="7340"/>
   </bookViews>
   <sheets>
-    <sheet name="Time Plan" sheetId="1" r:id="rId1"/>
+    <sheet name="TimePlan" sheetId="1" r:id="rId1"/>
     <sheet name="Effort Estimation" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="49">
   <si>
     <t>Task Name</t>
   </si>
@@ -601,7 +601,7 @@
   <dimension ref="A1:S18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="A13" sqref="A13:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -802,8 +802,8 @@
       <c r="H6" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="I6" s="15" t="s">
-        <v>46</v>
+      <c r="I6" s="15">
+        <v>3</v>
       </c>
       <c r="J6" s="8" t="s">
         <v>20</v>
@@ -1008,7 +1008,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1046,7 +1046,7 @@
       <c r="B3">
         <v>10</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>8</v>
       </c>
     </row>
@@ -1057,7 +1057,7 @@
       <c r="B4">
         <v>10</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>7</v>
       </c>
     </row>
@@ -1068,7 +1068,7 @@
       <c r="B5">
         <v>10</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>7</v>
       </c>
     </row>
@@ -1079,7 +1079,7 @@
       <c r="B6">
         <v>10</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>8</v>
       </c>
     </row>
@@ -1090,7 +1090,7 @@
       <c r="B7">
         <v>10</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>7</v>
       </c>
     </row>

--- a/Project Management/PM_Plan_BackLog.xlsx
+++ b/Project Management/PM_Plan_BackLog.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="61">
   <si>
     <t>Task Name</t>
   </si>
@@ -163,6 +163,42 @@
   </si>
   <si>
     <t>Effort Planned</t>
+  </si>
+  <si>
+    <t>Fixing DES_HL_Decomposition</t>
+  </si>
+  <si>
+    <t>account and user transaction to be added</t>
+  </si>
+  <si>
+    <t xml:space="preserve">need to be more detailed </t>
+  </si>
+  <si>
+    <t>Fixing DES_LL_FlowChart</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> need to include validation functions</t>
+  </si>
+  <si>
+    <t>Fixing DES_LL_ClassDiagram</t>
+  </si>
+  <si>
+    <t>Fixing DES_HL_ERD</t>
+  </si>
+  <si>
+    <t>Admin entity need to be deleted</t>
+  </si>
+  <si>
+    <t>27/4</t>
+  </si>
+  <si>
+    <t>28/4</t>
+  </si>
+  <si>
+    <t>inprogress</t>
+  </si>
+  <si>
+    <t>Development</t>
   </si>
 </sst>
 </file>
@@ -243,7 +279,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -295,6 +331,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -598,16 +647,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S18"/>
+  <dimension ref="A1:S27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:A17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15.54296875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="2" max="2" width="30.26953125" customWidth="1"/>
     <col min="3" max="3" width="77.81640625" style="1" customWidth="1"/>
     <col min="4" max="7" width="15.26953125" style="1" customWidth="1"/>
     <col min="8" max="8" width="25" style="14" customWidth="1"/>
@@ -960,7 +1009,7 @@
       </c>
     </row>
     <row r="12" spans="1:19" s="7" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="22"/>
+      <c r="A12" s="21"/>
       <c r="B12" s="7" t="s">
         <v>31</v>
       </c>
@@ -989,14 +1038,157 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B18" s="4"/>
+    <row r="13" spans="1:19" s="5" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="21"/>
+      <c r="B13" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13" s="12">
+        <v>1</v>
+      </c>
+      <c r="I13" s="12"/>
+      <c r="J13" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" s="24" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="21"/>
+      <c r="B14" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14" s="25">
+        <v>1</v>
+      </c>
+      <c r="J14" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" s="24" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="21"/>
+      <c r="B15" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" s="25">
+        <v>1</v>
+      </c>
+      <c r="J15" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" s="27" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="22"/>
+      <c r="B16" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="H16" s="28">
+        <v>1</v>
+      </c>
+      <c r="J16" s="26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="29"/>
+    </row>
+    <row r="19" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="29"/>
+      <c r="B19" s="4"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="29"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="29"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="29"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="29"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="29"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="29"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="29"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="D6:E6"/>
-    <mergeCell ref="A6:A12"/>
+    <mergeCell ref="A6:A16"/>
+    <mergeCell ref="A17:A27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Project Management/PM_Plan_BackLog.xlsx
+++ b/Project Management/PM_Plan_BackLog.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="93">
   <si>
     <t>Task Name</t>
   </si>
@@ -199,6 +199,102 @@
   </si>
   <si>
     <t>Development</t>
+  </si>
+  <si>
+    <t>DEV_Front_UserTransaction</t>
+  </si>
+  <si>
+    <t>DEV_Front_Login</t>
+  </si>
+  <si>
+    <t>DEV_Front_Registration</t>
+  </si>
+  <si>
+    <t>DEV_Front_Admin</t>
+  </si>
+  <si>
+    <t>DEV_Back_Registration</t>
+  </si>
+  <si>
+    <t>DEV_Back_Login</t>
+  </si>
+  <si>
+    <t>DEV_Back_UserTransaction</t>
+  </si>
+  <si>
+    <t>DEV_Back_Admin</t>
+  </si>
+  <si>
+    <t>DEV_Back_Database</t>
+  </si>
+  <si>
+    <t>3/5</t>
+  </si>
+  <si>
+    <t>9/5</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>DEV_Plan_BackLog</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement the frontend for Registration page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement the frontend for Login page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement the frontend forUser Transaction page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement the frontend for Admin page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement the backend for Registration page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement the backend for Login page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement the backend forUser Transaction page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement the backend for Admin page </t>
+  </si>
+  <si>
+    <t>Make Database for the system</t>
+  </si>
+  <si>
+    <t>making time plan for the Design phase</t>
+  </si>
+  <si>
+    <t>DEV_Understanding</t>
   </si>
 </sst>
 </file>
@@ -279,7 +375,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -299,22 +395,70 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -332,16 +476,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -647,10 +781,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S27"/>
+  <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -658,14 +792,14 @@
     <col min="1" max="1" width="15.54296875" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.26953125" customWidth="1"/>
     <col min="3" max="3" width="77.81640625" style="1" customWidth="1"/>
-    <col min="4" max="7" width="15.26953125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="25" style="14" customWidth="1"/>
-    <col min="9" max="9" width="24.90625" customWidth="1"/>
-    <col min="10" max="10" width="15.7265625" customWidth="1"/>
-    <col min="11" max="11" width="16.7265625" customWidth="1"/>
+    <col min="4" max="5" width="15.26953125" style="1" customWidth="1"/>
+    <col min="6" max="7" width="15.26953125" style="25" customWidth="1"/>
+    <col min="8" max="8" width="25" style="42" customWidth="1"/>
+    <col min="9" max="9" width="24.90625" style="28" customWidth="1"/>
+    <col min="10" max="10" width="15.7265625" style="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="3" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:18" s="3" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -681,19 +815,19 @@
       <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="31" t="s">
         <v>3</v>
       </c>
       <c r="K1" s="2"/>
@@ -704,10 +838,9 @@
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-    </row>
-    <row r="2" spans="1:19" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="16" t="s">
+    </row>
+    <row r="2" spans="1:18" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="44" t="s">
         <v>34</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -722,24 +855,24 @@
       <c r="E2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="32">
         <v>1</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="32">
         <v>1</v>
       </c>
-      <c r="J2" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="16"/>
+      <c r="J2" s="32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="44"/>
       <c r="B3" s="8" t="s">
         <v>36</v>
       </c>
@@ -752,24 +885,24 @@
       <c r="E3" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="32">
         <v>1</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="32">
         <v>1</v>
       </c>
-      <c r="J3" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="16"/>
+      <c r="J3" s="32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="44"/>
       <c r="B4" s="8" t="s">
         <v>37</v>
       </c>
@@ -782,24 +915,24 @@
       <c r="E4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="32">
         <v>1</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="32">
         <v>1</v>
       </c>
-      <c r="J4" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" s="9" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="17"/>
+      <c r="J4" s="32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" s="9" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="45"/>
       <c r="B5" s="9" t="s">
         <v>42</v>
       </c>
@@ -812,24 +945,24 @@
       <c r="E5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="I5" s="33">
         <v>2</v>
       </c>
-      <c r="I5" s="9">
-        <v>2</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="20" t="s">
+      <c r="J5" s="33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="48" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -838,28 +971,28 @@
       <c r="C6" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="19"/>
-      <c r="F6" s="8" t="s">
+      <c r="E6" s="47"/>
+      <c r="F6" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I6" s="34">
         <v>3</v>
       </c>
-      <c r="J6" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="21"/>
+      <c r="J6" s="32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="49"/>
       <c r="B7" s="5" t="s">
         <v>11</v>
       </c>
@@ -872,24 +1005,24 @@
       <c r="E7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="35">
         <v>4</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="35">
         <v>4</v>
       </c>
-      <c r="J7" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" s="5" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="21"/>
+      <c r="J7" s="26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" s="5" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="49"/>
       <c r="B8" s="5" t="s">
         <v>21</v>
       </c>
@@ -902,24 +1035,24 @@
       <c r="E8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="35">
         <v>2</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="35">
         <v>2</v>
       </c>
-      <c r="J8" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" s="5" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="21"/>
+      <c r="J8" s="26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" s="5" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="49"/>
       <c r="B9" s="5" t="s">
         <v>22</v>
       </c>
@@ -932,24 +1065,24 @@
       <c r="E9" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="35">
         <v>4</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I9" s="35">
         <v>3</v>
       </c>
-      <c r="J9" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" s="5" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="21"/>
+      <c r="J9" s="26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" s="5" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="49"/>
       <c r="B10" s="5" t="s">
         <v>25</v>
       </c>
@@ -962,24 +1095,24 @@
       <c r="E10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="35">
         <v>3</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="35">
         <v>3</v>
       </c>
-      <c r="J10" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" s="5" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="21"/>
+      <c r="J10" s="26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" s="5" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="49"/>
       <c r="B11" s="5" t="s">
         <v>27</v>
       </c>
@@ -992,24 +1125,24 @@
       <c r="E11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="35">
         <v>4</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="35">
         <v>4</v>
       </c>
-      <c r="J11" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" s="7" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="21"/>
+      <c r="J11" s="26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" s="7" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="49"/>
       <c r="B12" s="7" t="s">
         <v>31</v>
       </c>
@@ -1022,24 +1155,24 @@
       <c r="E12" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H12" s="36">
         <v>5</v>
       </c>
-      <c r="I12" s="13">
+      <c r="I12" s="36">
         <v>5</v>
       </c>
-      <c r="J12" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" s="5" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="21"/>
+      <c r="J12" s="37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" s="5" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="49"/>
       <c r="B13" s="5" t="s">
         <v>49</v>
       </c>
@@ -1052,143 +1185,462 @@
       <c r="E13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13" s="35">
         <v>1</v>
       </c>
-      <c r="I13" s="12"/>
-      <c r="J13" s="5" t="s">
+      <c r="I13" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="J13" s="26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" s="13" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="49"/>
+      <c r="B14" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="I14" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="J14" s="27" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:19" s="24" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="21"/>
-      <c r="B14" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="23" t="s">
+    <row r="15" spans="1:18" s="13" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="49"/>
+      <c r="B15" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="F15" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" s="38">
+        <v>1</v>
+      </c>
+      <c r="I15" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="J15" s="27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" s="15" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="50"/>
+      <c r="B16" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="H16" s="40">
+        <v>1</v>
+      </c>
+      <c r="I16" s="41">
+        <v>1</v>
+      </c>
+      <c r="J16" s="29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="13" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="11"/>
+      <c r="B17" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="47"/>
+      <c r="F17" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="H17" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" s="34">
+        <v>3</v>
+      </c>
+      <c r="J17" s="32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="G14" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="H14" s="25">
-        <v>1</v>
-      </c>
-      <c r="J14" s="23" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" s="24" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="21"/>
-      <c r="B15" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" s="23" t="s">
+      <c r="F18" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="G18" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="H18" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="I18" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="J18" s="32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="51"/>
+      <c r="B19" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="F19" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="G19" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="H19" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="I19" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="J19" s="26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="51"/>
+      <c r="B20" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="G20" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="H20" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="I20" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="J20" s="26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="51"/>
+      <c r="B21" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="G21" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="H21" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="I21" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="J21" s="26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="51"/>
+      <c r="B22" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="G22" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="H22" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="I22" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="J22" s="26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="51"/>
+      <c r="B23" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="G23" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="H23" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="I23" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="J23" s="26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="51"/>
+      <c r="B24" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="G15" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="H15" s="25">
-        <v>1</v>
-      </c>
-      <c r="J15" s="23" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" s="27" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="22"/>
-      <c r="B16" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="26" t="s">
+      <c r="F24" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="G24" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="H24" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="I24" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="J24" s="26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="51"/>
+      <c r="B25" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="G25" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="H25" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="I25" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="J25" s="32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="51"/>
+      <c r="B26" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="27" t="s">
+      <c r="F26" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="G26" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="H26" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="I26" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="J26" s="26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="51"/>
+      <c r="B27" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="G16" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="H16" s="28">
-        <v>1</v>
-      </c>
-      <c r="J16" s="26" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="29" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="29"/>
-    </row>
-    <row r="19" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="29"/>
-      <c r="B19" s="4"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="29"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="29"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="29"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="29"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="29"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="29"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="29"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="29"/>
+      <c r="E27" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="G27" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="H27" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="I27" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="J27" s="26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="51"/>
+      <c r="J28" s="26"/>
+    </row>
+    <row r="29" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="J29" s="26"/>
+    </row>
+    <row r="30" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="J30" s="26"/>
+    </row>
+    <row r="31" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="J31" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="A6:A16"/>
-    <mergeCell ref="A17:A27"/>
+    <mergeCell ref="A18:A28"/>
+    <mergeCell ref="D17:E17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1197,10 +1649,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1209,7 +1661,7 @@
     <col min="3" max="3" width="15.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="10" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" s="10" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="10" t="s">
         <v>40</v>
       </c>
@@ -1220,29 +1672,29 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>29</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1250,40 +1702,41 @@
         <v>10</v>
       </c>
       <c r="C4" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+      <c r="D4" s="16"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>24</v>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>18</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>28</v>
       </c>
       <c r="B7">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
